--- a/data/output/FV2504_FV2410/ORDERS/17201.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17201.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="168">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="168">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -605,6 +605,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U59" totalsRowShown="0">
+  <autoFilter ref="A1:U59"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,7 +924,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3732,5 +3765,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17201.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17201.xlsx
@@ -1239,7 +1239,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -2801,52 +2801,52 @@
       <c r="V32" s="5"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P33" s="5"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V33" s="5"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3525,7 +3525,7 @@
         <v>160</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3961,48 +3961,48 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="2"/>
       <c r="L55" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5" t="s">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P55" s="5"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V55" s="5"/>
+      <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -4061,48 +4061,48 @@
       <c r="V56" s="5"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="2"/>
       <c r="L57" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5" t="s">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P57" s="5"/>
+      <c r="P57" s="2"/>
       <c r="Q57" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="V57" s="5"/>
+      <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
